--- a/cirRNA/cirRNAInfo/static/table/miRNA_info.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/miRNA_info.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB93F687-B1C5-4909-90CB-A6DA169BF33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="miRNA-info" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'miRNA-info'!$H$1:$H$72</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="484">
   <si>
     <t>miRNA</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2309,11 +2311,19 @@
     <t>hsa-miR-450a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2343,18 +2353,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2369,14 +2373,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2491,23 +2489,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2543,23 +2524,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2735,1628 +2699,1894 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="E21" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="C24" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="322" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:8" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="G28" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="G29" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="364" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:8" ht="351" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="G31" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="280" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:8" ht="270" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="C34" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="280" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:8" ht="270" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="G36" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="G37" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="G38" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="C41" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="196" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="7" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="G45" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="G46" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="7" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="G49" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="G50" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="E51" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="G51" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="G52" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="196" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="G57" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="B58" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="98" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="G60" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="B63" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="H64" s="5" t="s">
+      <c r="C64" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="G65" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="280" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:8" ht="270" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="154" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="G69" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:8" ht="112" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="B70" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="112" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="108" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="G72" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>328</v>
       </c>
     </row>

--- a/cirRNA/cirRNAInfo/static/table/miRNA_info.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/miRNA_info.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="miRNA-info" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'miRNA-info'!$H$1:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$73</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="516">
   <si>
     <t>miRNA</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,10 +57,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">hsa-miR-9 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>hsa-miR-497</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>hsa-miR-766</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>hsa-miR-29a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,10 +85,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>hsa-miR-450a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-138  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsa-miR-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>hsa-miR-1254</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>hsa-miR-134</t>
+  </si>
+  <si>
+    <t>hsa-miR-940</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>hsa-miR-200b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,12 +119,21 @@
     <t>hsa-miR-647</t>
   </si>
   <si>
+    <t>hsa-miR-326</t>
+  </si>
+  <si>
+    <t>hsa-miR-421</t>
+  </si>
+  <si>
     <t>hsa-miR-422a</t>
   </si>
   <si>
     <t>hsa-miR-608</t>
   </si>
   <si>
+    <t>hsa-miR-646</t>
+  </si>
+  <si>
     <t>hsa-miR-892b</t>
   </si>
   <si>
@@ -107,6 +145,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>hsa-miR-300</t>
+  </si>
+  <si>
     <t>hsa-miR-5095</t>
   </si>
   <si>
@@ -114,6 +155,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>hsa-miR-22</t>
+  </si>
+  <si>
+    <t>hsa-miR-138</t>
+  </si>
+  <si>
     <t>hsa-miR-433</t>
   </si>
   <si>
@@ -135,6 +182,15 @@
     <t>hsa-miR-765</t>
   </si>
   <si>
+    <t>hsa-miR-665</t>
+  </si>
+  <si>
+    <t>hsa-miR-484</t>
+  </si>
+  <si>
+    <t>hsa-miR-136</t>
+  </si>
+  <si>
     <t>hsa-miR-217</t>
   </si>
   <si>
@@ -158,10 +214,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>hsa-miR-185</t>
+  </si>
+  <si>
+    <t>hsa-miR-93</t>
+  </si>
+  <si>
     <t>hsa-miR-224</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>hsa-miR-200a</t>
+  </si>
+  <si>
     <t>hsa-miR-124</t>
   </si>
   <si>
@@ -174,15 +239,33 @@
     <t>hsa-miR-29b</t>
   </si>
   <si>
+    <t>hsa-miR-338</t>
+  </si>
+  <si>
     <t>hsa-miR-379</t>
   </si>
   <si>
+    <t>hsa-miR-584</t>
+  </si>
+  <si>
     <t>hsa-miR-558</t>
   </si>
   <si>
+    <t>hsa-miR-221</t>
+  </si>
+  <si>
+    <t>hsa-miR-875</t>
+  </si>
+  <si>
+    <t>hsa-miR-186</t>
+  </si>
+  <si>
     <t>hsa-miR-193b</t>
   </si>
   <si>
+    <t>hsa-miR-944</t>
+  </si>
+  <si>
     <t>hsa-miR-620</t>
   </si>
   <si>
@@ -190,11 +273,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Evidence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep sequencing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>database links</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Predicted targets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">MI0000734 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsa-miR-34a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -354,6 +457,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>MIPF0000027; mir-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Coordinates (GRCh38; GCA_000001405.15)
 chr9: 95085208-95085304 [+]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -376,6 +483,10 @@
 HGNC:MIR23B
 RNAcentral:URS0000283D0A_9606
 miRBase Tracker:MI0000439</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsa-miR-146a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -600,6 +711,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>MIPF0000001; mir-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt; 10kb from hsa-mir-20a
 hsa-mir-17 chr13: 91350605-91350688 [+]
 hsa-mir-18a chr13: 91350751-91350821 [+]
@@ -614,6 +729,10 @@
 HGNC:MIR20A
 RNAcentral:URS0000507C9B_9606
 miRBase Tracker:MI0000076</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsa-miR-33b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2311,20 +2430,12 @@
     <t>hsa-miR-450a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2352,13 +2463,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2373,14 +2497,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2393,8 +2526,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2414,7 +2553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2702,1893 +2841,2745 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>49</v>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>165</v>
+      <c r="B3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>172</v>
+      <c r="B4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>178</v>
+      <c r="B5" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>186</v>
+      <c r="B6" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>193</v>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>200</v>
+      <c r="A9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>207</v>
+      <c r="A10" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>209</v>
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>216</v>
+      <c r="A12" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>224</v>
+      <c r="A13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>231</v>
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>238</v>
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>244</v>
+      <c r="A16" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>257</v>
+      <c r="A17" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>256</v>
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>263</v>
+      <c r="A19" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>271</v>
+      <c r="A20" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>275</v>
+        <v>34</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>281</v>
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>288</v>
+      <c r="A23" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>290</v>
+        <v>510</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>297</v>
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>303</v>
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>310</v>
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>316</v>
+      <c r="A28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>322</v>
+      <c r="A29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="351" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>336</v>
+      <c r="A30" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>342</v>
+      <c r="A31" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="270" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>349</v>
+      <c r="A32" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>356</v>
+      <c r="A33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>358</v>
+      <c r="A34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="270" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>365</v>
+      <c r="A35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>371</v>
+      <c r="A36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>377</v>
+      <c r="A37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>383</v>
+      <c r="A38" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>390</v>
+      <c r="A39" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>397</v>
+      <c r="A40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="189" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="H48" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="49" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>456</v>
+      <c r="A49" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>463</v>
+      <c r="A50" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>468</v>
+      <c r="A51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>65</v>
+      <c r="B52" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>74</v>
+      <c r="B53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>73</v>
+      <c r="A54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>80</v>
+      <c r="A55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="189" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>87</v>
+      <c r="A56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>93</v>
+      <c r="A57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>482</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>98</v>
+      <c r="A59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>103</v>
+      <c r="A60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>111</v>
+      <c r="A61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>118</v>
+      <c r="A62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>482</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>120</v>
+      <c r="A64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="H64" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>126</v>
+      <c r="A65" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="270" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>132</v>
+      <c r="A66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>139</v>
+      <c r="A67" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>147</v>
+      <c r="A68" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>153</v>
+      <c r="A69" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>482</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>159</v>
+      <c r="A71" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="108" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>328</v>
-      </c>
+      <c r="B72" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A73"/>
+  <sortState ref="A2:G73">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="351" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="135" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
